--- a/loaded_influencer_data/greeny7851/greeny7851_video.xlsx
+++ b/loaded_influencer_data/greeny7851/greeny7851_video.xlsx
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7479873059856387329</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9787</v>
+        <v>10000</v>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.4904465106774293</v>
+        <v>0.49</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4802288750383161</v>
+        <v>0.48</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01021763563911311</v>
+        <v>0.01</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03065290691733933</v>
+        <v>0.04</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -562,25 +562,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7476149447412550930</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>700500</v>
+        <v>700700</v>
       </c>
       <c r="C3" t="n">
-        <v>2156</v>
+        <v>2162</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,19 +591,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.3100642398286938</v>
+        <v>0.3109747395461681</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3077801570306923</v>
+        <v>0.30854859426288</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002284082798001427</v>
+        <v>0.002426145283288141</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05581727337615989</v>
+        <v>0.0555159126587698</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -617,25 +617,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7483529948708228369</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C4" t="n">
-        <v>2156</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>391</v>
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -646,298 +646,298 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>545.7286432160804</v>
+        <v>3.43980343980344</v>
       </c>
       <c r="I4" t="n">
-        <v>541.7085427135678</v>
+        <v>2.948402948402948</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.020100502512562</v>
+        <v>0.4914004914004914</v>
       </c>
       <c r="L4" t="n">
-        <v>98.24120603015075</v>
+        <v>0.4914004914004914</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7483135167624695047</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>Proper hydration helps minimize pores.
-When the skin lacks moisture, the pores overproduce sebum and become enlarged. 🥲 So if you have concerns about pores, then how about focus on hydration?</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3.131991051454139</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.684563758389262</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.4474272930648769</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.2237136465324385</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@greeny7851/video/7482801525308312833</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>676</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>Eating sad, suddenly 🥲😂
 #kdrama #sunjae #delulugirl #kdramaost #actinglike #dramatic</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>1.775147928994083</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.775147928994083</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H5" t="n">
+        <v>2.62582056892779</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.62582056892779</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@greeny7851/video/7482457514022276369</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2063</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@greeny7851/video/7482801525308312833</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>695</v>
+      </c>
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>It’s only 2 dollars 💸 I’m Korean but I never believed hyped k-beauty products in TikTok- Now I do trust them😂
 Glow from inside for real!✨✨✨</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>0.7755695588948134</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.6786233640329618</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.09694619486185167</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="H6" t="n">
+        <v>2.302158273381295</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.014388489208633</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2877697841726619</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@greeny7851/video/7482276595122818311</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>561</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@greeny7851/video/7482457514022276369</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2071</v>
+      </c>
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Every sunscreen has a white cast.. btw why this sunscreen makes my skin look perfect 🤩
 #whitecast</t>
         </is>
       </c>
+      <c r="H7" t="n">
+        <v>1.014002897151135</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9657170449058425</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04828585224529212</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04828585224529212</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@greeny7851/video/7482276595122818311</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>621</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sunday drawing🎨🖌️
+#drawings #characterdrawing #smallthingsmakemehappy #fulfilled #mindpeace</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>3.74331550802139</v>
+        <v>2.415458937198068</v>
       </c>
       <c r="I8" t="n">
-        <v>3.565062388591801</v>
+        <v>1.771336553945249</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.17825311942959</v>
+        <v>0.644122383252818</v>
       </c>
       <c r="L8" t="n">
-        <v>0.17825311942959</v>
+        <v>0.4830917874396135</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7481711754829892881</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Every sunscreen has a white cast.. btw why this sunscreen makes my skin look perfect 🤩
-#whitecast</t>
+          <t>⚠️Retinol cautions‼️
+I saw a tiktok one dermatologist said retinol can help rosacea too. So I bought one. And there are many things to care about! Let’s share retinol tips!</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.833333333333333</v>
+        <v>2.989130434782609</v>
       </c>
       <c r="I9" t="n">
-        <v>5.555555555555555</v>
+        <v>2.445652173913043</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2777777777777778</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-15</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7480960254008741137</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>272</v>
+        <v>357</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -947,36 +947,36 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sunday drawing🎨🖌️
-#drawings #characterdrawing #smallthingsmakemehappy #fulfilled #mindpeace</t>
+          <t>⚠️Retinol cautions‼️
+I saw a tiktok one dermatologist said retinol can help rosacea too. So I bought one. And there are many things to care about! Let’s share retinol tips!</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.514705882352941</v>
+        <v>2.240896358543417</v>
       </c>
       <c r="I10" t="n">
-        <v>4.044117647058823</v>
+        <v>2.240896358543417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.470588235294118</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.102941176470588</v>
+        <v>0.8403361344537815</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-13</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/photo/7480204266838265106</t>
         </is>
@@ -1027,7 +1027,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7480199573433077000</t>
         </is>
@@ -1078,7 +1078,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/photo/7479473892302540040</t>
         </is>
@@ -1128,7 +1128,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7479463464122076433</t>
         </is>
@@ -1178,7 +1178,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/photo/7479269656168287506</t>
         </is>
@@ -1230,7 +1230,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7479159469876858119</t>
         </is>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7478708953438850311</t>
         </is>
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7477573048757947665</t>
         </is>
@@ -1385,7 +1385,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7477223488911150354</t>
         </is>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7476827594285927697</t>
         </is>
@@ -1485,7 +1485,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7476540121995840776</t>
         </is>
@@ -1535,7 +1535,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7475791675886112007</t>
         </is>
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7475381942263811336</t>
         </is>
@@ -1635,7 +1635,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7475046286614433032</t>
         </is>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@greeny7851/video/7474633554824105224</t>
         </is>
